--- a/outputs/fft-d__Bacteria_include_p__Firmicutes_A.xlsx
+++ b/outputs/fft-d__Bacteria_include_p__Firmicutes_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4237FBE6-553F-4B41-8369-2A0A8D00D3AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C634017-D885-B34C-BF54-997DEBC046A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2800" yWindow="480" windowWidth="28800" windowHeight="15880" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="g__Ruminococcus_E-LSVM" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="g__C941-LSVM-1" sheetId="8" r:id="rId8"/>
     <sheet name="f__Lachnospiracea-LSVM-1" sheetId="9" r:id="rId9"/>
     <sheet name="g__RC9-LSVM-1" sheetId="10" r:id="rId10"/>
+    <sheet name="statistics" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="420">
   <si>
     <t>p__Chloroflexota</t>
   </si>
@@ -1262,6 +1263,33 @@
   </si>
   <si>
     <t>reject</t>
+  </si>
+  <si>
+    <t>alpha = 1</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>partially correct</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>g__Prevotella</t>
+  </si>
+  <si>
+    <t>f__Lachnospiraceae</t>
+  </si>
+  <si>
+    <t>g__RC9</t>
+  </si>
+  <si>
+    <t>g__Ruminococcues_E</t>
+  </si>
+  <si>
+    <t>g__C941</t>
   </si>
 </sst>
 </file>
@@ -1318,11 +1346,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1627,7 +1656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -2819,7 +2848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4200,6 +4229,87 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B3FACF-28EE-C94E-A698-B2D978CDD5E5}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.97637795275590544</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.3622047244094488E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.86259541984732824</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.13740458015267176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.98275862068965525</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.7241379310344827E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -12771,7 +12881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -16109,7 +16219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -17055,7 +17165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A86" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/outputs/fft-d__Bacteria_include_p__Firmicutes_A.xlsx
+++ b/outputs/fft-d__Bacteria_include_p__Firmicutes_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C634017-D885-B34C-BF54-997DEBC046A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29AB2A1-C485-B746-ABD7-B4265CD5AD77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="480" windowWidth="28800" windowHeight="15880" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="g__Ruminococcus_E-LSVM" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="g__C941-LSVM-1" sheetId="8" r:id="rId8"/>
     <sheet name="f__Lachnospiracea-LSVM-1" sheetId="9" r:id="rId9"/>
     <sheet name="g__RC9-LSVM-1" sheetId="10" r:id="rId10"/>
-    <sheet name="statistics" sheetId="12" r:id="rId11"/>
+    <sheet name="statistics-1" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/outputs/fft-d__Bacteria_include_p__Firmicutes_A.xlsx
+++ b/outputs/fft-d__Bacteria_include_p__Firmicutes_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32CF661-3FA0-2D4E-A9DC-6A1C450CEE4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD413FE-7081-A043-8A64-E8A5BF431ED6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="g__Ruminococcus_E-LSVM" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="f__Lachnospiracea-LSVM" sheetId="4" r:id="rId4"/>
     <sheet name="g__RC9-LSVM" sheetId="5" r:id="rId5"/>
     <sheet name="g__CAG-791-LSVM" sheetId="6" r:id="rId6"/>
-    <sheet name="g__Ruminococcus_E-LSVM-1" sheetId="7" r:id="rId7"/>
-    <sheet name="g__Prevotella-LSVM-1" sheetId="8" r:id="rId8"/>
-    <sheet name="g__C941-LSVM-1" sheetId="9" r:id="rId9"/>
-    <sheet name="f__Lachnospiracea-LSVM-1" sheetId="10" r:id="rId10"/>
-    <sheet name="g__RC9-LSVM-1" sheetId="11" r:id="rId11"/>
-    <sheet name="g__CAG-791-LSVM-1" sheetId="13" r:id="rId12"/>
+    <sheet name="g__Ruminococcus_E-t" sheetId="7" r:id="rId7"/>
+    <sheet name="g__Prevotella-t" sheetId="8" r:id="rId8"/>
+    <sheet name="g__C941-t" sheetId="9" r:id="rId9"/>
+    <sheet name="f__Lachnospiracea-t" sheetId="10" r:id="rId10"/>
+    <sheet name="g__RC9-t" sheetId="11" r:id="rId11"/>
+    <sheet name="g__CAG-791-t" sheetId="13" r:id="rId12"/>
     <sheet name="statistics-1" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -6343,7 +6343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -8625,7 +8625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/outputs/fft-d__Bacteria_include_p__Firmicutes_A.xlsx
+++ b/outputs/fft-d__Bacteria_include_p__Firmicutes_A.xlsx
@@ -21878,7 +21878,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>p__Chloroflexota</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -21952,7 +21952,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>p__Chloroflexota</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -22581,7 +22581,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>p__Chloroflexota</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -24986,7 +24986,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>p__Chloroflexota</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -25060,7 +25060,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>p__Chloroflexota</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -25467,7 +25467,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>p__Chloroflexota</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -26281,7 +26281,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>p__Chloroflexota</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -33420,7 +33420,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>p__Chloroflexota</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
